--- a/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
+++ b/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_FULL\SuppXLS\Policy_1\Dobre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMSAndProject\VEDA model\TIMES-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F785791-9CB0-4EE1-816B-CC1CB2B4ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC539500-6D8A-49F6-943D-A3C7B46EC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FLO_SUBSIDY" sheetId="2" r:id="rId1"/>
@@ -725,31 +725,31 @@
   <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -789,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -797,7 +797,7 @@
         <v>2050</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -843,15 +843,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -1094,6 +1085,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82319D87-9F89-465F-A992-21F87A25DE83}">
   <ds:schemaRefs>
@@ -1112,14 +1112,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C1AF4FF-0628-4F57-A159-819DC63143E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1136,4 +1128,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
+++ b/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMSAndProject\VEDA model\TIMES-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC539500-6D8A-49F6-943D-A3C7B46EC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632EB3D-7128-4A6D-BD0C-5580F8ACB6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,6 +843,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -1085,15 +1094,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82319D87-9F89-465F-A992-21F87A25DE83}">
   <ds:schemaRefs>
@@ -1112,6 +1112,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C1AF4FF-0628-4F57-A159-819DC63143E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1128,12 +1136,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
+++ b/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMSAndProject\VEDA model\TIMES-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMSAndProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA41354-777C-4E7A-AFE3-920087D541EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA4C14-42D6-491D-A9C9-5462ABC6374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
+++ b/SuppXLS/Scen_SUBSIDY_RES_CONS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMSAndProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMSAndProject\VEDA model\TIMES-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA4C14-42D6-491D-A9C9-5462ABC6374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE204AC-E88E-41C2-B506-6AF2AD68D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
